--- a/medicine/Psychotrope/Brandy_(alcool)/Brandy_(alcool).xlsx
+++ b/medicine/Psychotrope/Brandy_(alcool)/Brandy_(alcool).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Brandy est un terme de langue anglaise qui désigne une eau-de-vie de vin, obtenue par distillation de vin de cépages rouges ou blancs. Le cognac est un type de brandy qui vient tout simplement de la région de Cognac. 
-À partir du XVe siècle, les Néerlandais raffolent du cognac, ce brandewijn (« vin brûlé », d'où le terme anglais brandy et le terme français brandevin), qu'ils boivent coupé d'eau dans les tavernes, les ports, sur leurs bateaux, plus rarement chez eux[1]. 
+À partir du XVe siècle, les Néerlandais raffolent du cognac, ce brandewijn (« vin brûlé », d'où le terme anglais brandy et le terme français brandevin), qu'ils boivent coupé d'eau dans les tavernes, les ports, sur leurs bateaux, plus rarement chez eux. 
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des dix brandys les plus vendus dans le monde en 2013</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette liste a été élaborée par le magazine en ligne The Spirits Business[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette liste a été élaborée par le magazine en ligne The Spirits Business.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour des raisons encore mal comprises, bu en quantité excessive (au point d'induire une ivresse), c'est l'un des spiritueux qui induit les gueules de bois les plus intenses[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour des raisons encore mal comprises, bu en quantité excessive (au point d'induire une ivresse), c'est l'un des spiritueux qui induit les gueules de bois les plus intenses.
 </t>
         </is>
       </c>
